--- a/Loggerhead2022.xlsx
+++ b/Loggerhead2022.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B8A1BE-D83D-4B99-B61F-CE7D8239339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="300" windowWidth="12540" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loggerhead" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -80,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -534,20 +546,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="17.33203125" style="1" customWidth="1"/>
+    <col min="1" max="8" width="17.296875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,7 +571,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,7 +580,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -591,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -614,7 +626,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -637,7 +649,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -660,7 +672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -683,7 +695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -706,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -758,502 +770,502 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>100</v>
       </c>
